--- a/data/trans_orig/P1406-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>13756</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8124</v>
+        <v>7484</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23324</v>
+        <v>22397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01317749654717247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007781810328956159</v>
+        <v>0.007168739630170977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02234281784822224</v>
+        <v>0.02145431566149413</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -763,19 +763,19 @@
         <v>19959</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12184</v>
+        <v>12296</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30665</v>
+        <v>31045</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01786044730000176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01090359359790858</v>
+        <v>0.01100367055596818</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02744158444561106</v>
+        <v>0.02778114814221472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -784,19 +784,19 @@
         <v>33715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23052</v>
+        <v>23111</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46913</v>
+        <v>48005</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01559863366275462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01066518240762908</v>
+        <v>0.01069279633749815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02170469981595526</v>
+        <v>0.02221006614873556</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1030179</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1020611</v>
+        <v>1021538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1035811</v>
+        <v>1036451</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9868225034528275</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9776571821517777</v>
+        <v>0.978545684338506</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9922181896710438</v>
+        <v>0.992831260369829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1011</v>
@@ -834,19 +834,19 @@
         <v>1097511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1086805</v>
+        <v>1086425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1105286</v>
+        <v>1105174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9821395526999982</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.972558415554389</v>
+        <v>0.9722188518577851</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9890964064020916</v>
+        <v>0.9889963294440318</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1976</v>
@@ -855,19 +855,19 @@
         <v>2127690</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2114492</v>
+        <v>2113400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2138353</v>
+        <v>2138294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9844013663372454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9782953001840448</v>
+        <v>0.9777899338512644</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.989334817592371</v>
+        <v>0.9893072036625019</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>8347</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4044</v>
+        <v>3947</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15897</v>
+        <v>15505</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008542908024620042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004139284070355563</v>
+        <v>0.004039181081309346</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01627045791003774</v>
+        <v>0.015869053028358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -980,19 +980,19 @@
         <v>7340</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3161</v>
+        <v>3182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13880</v>
+        <v>15111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006719267172393601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002893570585774873</v>
+        <v>0.002912998836901535</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0127064444972217</v>
+        <v>0.01383339185137877</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -1001,19 +1001,19 @@
         <v>15687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9297</v>
+        <v>8418</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25264</v>
+        <v>25119</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007580304241461781</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004492417795351948</v>
+        <v>0.004067957384144858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01220818152190816</v>
+        <v>0.01213848952228854</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>968726</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>961176</v>
+        <v>961568</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>973029</v>
+        <v>973126</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.99145709197538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9837295420899625</v>
+        <v>0.9841309469716426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958607159296445</v>
+        <v>0.9959608189186907</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1012</v>
@@ -1051,19 +1051,19 @@
         <v>1084987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1078447</v>
+        <v>1077216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1089166</v>
+        <v>1089145</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9932807328276064</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9872935555027783</v>
+        <v>0.9861666081486211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971064294142251</v>
+        <v>0.9970870011630985</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1928</v>
@@ -1072,19 +1072,19 @@
         <v>2053713</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2044136</v>
+        <v>2044281</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2060103</v>
+        <v>2060982</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9924196957585382</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9877918184780921</v>
+        <v>0.9878615104777112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9955075822046481</v>
+        <v>0.9959320426158551</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>8333</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3766</v>
+        <v>3301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17539</v>
+        <v>16498</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009415090196150952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004254627491290111</v>
+        <v>0.003729248156792905</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01981575089790869</v>
+        <v>0.0186395400492559</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1197,19 +1197,19 @@
         <v>10835</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5283</v>
+        <v>5465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19046</v>
+        <v>20195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01237157262324559</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006032020968899977</v>
+        <v>0.006239647502721731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02174755167321443</v>
+        <v>0.02305892002814196</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1218,19 +1218,19 @@
         <v>19168</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10981</v>
+        <v>11001</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29033</v>
+        <v>30227</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01088550806554644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00623573760084639</v>
+        <v>0.006247168820421717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01648771537432201</v>
+        <v>0.0171655219921713</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>876782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>867576</v>
+        <v>868617</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>881349</v>
+        <v>881814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9905849098038491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9801842491020912</v>
+        <v>0.9813604599507446</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9957453725087099</v>
+        <v>0.9962707518432071</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>811</v>
@@ -1268,19 +1268,19 @@
         <v>864961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>856750</v>
+        <v>855601</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>870513</v>
+        <v>870331</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9876284273767544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9782524483267855</v>
+        <v>0.9769410799718579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9939679790310999</v>
+        <v>0.9937603524972782</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1634</v>
@@ -1289,19 +1289,19 @@
         <v>1741743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1731878</v>
+        <v>1730684</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1749930</v>
+        <v>1749910</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9891144919344536</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9835122846256777</v>
+        <v>0.9828344780078285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9937642623991535</v>
+        <v>0.9937528311795771</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>10135</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4982</v>
+        <v>5061</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18584</v>
+        <v>17262</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02014844154383176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009904276383403772</v>
+        <v>0.0100608047885824</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03694480571200101</v>
+        <v>0.03431692958250901</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1414,19 +1414,19 @@
         <v>4986</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1950</v>
+        <v>1063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13825</v>
+        <v>13049</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01101341097965875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004307316149208394</v>
+        <v>0.002349034371616272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03053745110328311</v>
+        <v>0.02882241487910688</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1435,19 +1435,19 @@
         <v>15121</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8056</v>
+        <v>8945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24379</v>
+        <v>24574</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01582124539904649</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008428978617987078</v>
+        <v>0.009358632376433484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02550784804086113</v>
+        <v>0.02571133220425486</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>492888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484439</v>
+        <v>485761</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498041</v>
+        <v>497962</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9798515584561682</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.963055194287999</v>
+        <v>0.9656830704174909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900957236165963</v>
+        <v>0.9899391952114176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>408</v>
@@ -1485,19 +1485,19 @@
         <v>447750</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>438911</v>
+        <v>439687</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>450786</v>
+        <v>451673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9889865890203412</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9694625488967169</v>
+        <v>0.9711775851208931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9956926838507916</v>
+        <v>0.9976509656283837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>859</v>
@@ -1506,19 +1506,19 @@
         <v>940637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>931379</v>
+        <v>931184</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>947702</v>
+        <v>946813</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9841787546009535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9744921519591392</v>
+        <v>0.9742886677957452</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9915710213820129</v>
+        <v>0.9906413676235666</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>40572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28005</v>
+        <v>29044</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55270</v>
+        <v>54320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01190094466029755</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008214616041569948</v>
+        <v>0.00851950664444061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01621216125134656</v>
+        <v>0.0159335278459522</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1631,19 +1631,19 @@
         <v>43119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31730</v>
+        <v>31773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58349</v>
+        <v>58029</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01218634366035111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008967449535337046</v>
+        <v>0.008979720083136035</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01649064114954546</v>
+        <v>0.01640008722076975</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -1652,19 +1652,19 @@
         <v>83691</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68152</v>
+        <v>66889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106808</v>
+        <v>104598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01204629755157676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009809551192174391</v>
+        <v>0.009627834165313914</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01537357693878523</v>
+        <v>0.01505549232513458</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3368573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3353875</v>
+        <v>3354825</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3381140</v>
+        <v>3380101</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9880990553397024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9837878387486534</v>
+        <v>0.9840664721540479</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.99178538395843</v>
+        <v>0.9914804933555593</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3242</v>
@@ -1702,19 +1702,19 @@
         <v>3495209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3479979</v>
+        <v>3480299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3506598</v>
+        <v>3506555</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9878136563396489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9835093588504547</v>
+        <v>0.9835999127792303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9910325504646631</v>
+        <v>0.991020279916864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6397</v>
@@ -1723,19 +1723,19 @@
         <v>6863783</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6840666</v>
+        <v>6842876</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6879322</v>
+        <v>6880585</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9879537024484233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.984626423061215</v>
+        <v>0.9849445076748657</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9901904488078257</v>
+        <v>0.9903721658346861</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>6267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2109</v>
+        <v>2134</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14107</v>
+        <v>15137</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005555945044620744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001869343745810938</v>
+        <v>0.001891598527334825</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01250617235129764</v>
+        <v>0.01341930078506715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2088,19 +2088,19 @@
         <v>10777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5599</v>
+        <v>5444</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19104</v>
+        <v>19214</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008556457882729875</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004445490239191293</v>
+        <v>0.00432253181382038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0151671479722126</v>
+        <v>0.01525451658470905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2109,19 +2109,19 @@
         <v>17044</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10023</v>
+        <v>9761</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28603</v>
+        <v>28527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007138871306685864</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004197859521752923</v>
+        <v>0.004088071414979902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01197985969701531</v>
+        <v>0.01194837568039551</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>1121730</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1113890</v>
+        <v>1112860</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1125888</v>
+        <v>1125863</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9944440549553792</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9874938276487022</v>
+        <v>0.9865806992149322</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9981306562541891</v>
+        <v>0.9981084014726644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1178</v>
@@ -2159,19 +2159,19 @@
         <v>1248784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1240457</v>
+        <v>1240347</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1253962</v>
+        <v>1254117</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9914435421172701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9848328520277874</v>
+        <v>0.9847454834152908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9955545097608086</v>
+        <v>0.9956774681861795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2239</v>
@@ -2180,19 +2180,19 @@
         <v>2370514</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2358955</v>
+        <v>2359031</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2377535</v>
+        <v>2377797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9928611286933141</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9880201403029848</v>
+        <v>0.9880516243196046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9958021404782471</v>
+        <v>0.9959119285850201</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>6116</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2241</v>
+        <v>2252</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13168</v>
+        <v>12905</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006729542739503607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002465534376120101</v>
+        <v>0.002477749472139664</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01448953622343793</v>
+        <v>0.01420011629066905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2305,19 +2305,19 @@
         <v>9640</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4173</v>
+        <v>4495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17923</v>
+        <v>18371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009577747816529624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004146016079333137</v>
+        <v>0.004465742195484202</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01780743527648827</v>
+        <v>0.01825248041586766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2326,19 +2326,19 @@
         <v>15756</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9207</v>
+        <v>9509</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25768</v>
+        <v>27321</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008226252360321781</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004806901247128647</v>
+        <v>0.004964613262597511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01345351980161357</v>
+        <v>0.01426461505112057</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>902709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895657</v>
+        <v>895920</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>906584</v>
+        <v>906573</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9932704572604963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9855104637765623</v>
+        <v>0.9857998837093309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975344656238802</v>
+        <v>0.9975222505278604</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>942</v>
@@ -2376,19 +2376,19 @@
         <v>996835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>988552</v>
+        <v>988104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1002302</v>
+        <v>1001980</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9904222521834704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9821925647235116</v>
+        <v>0.9817475195841324</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9958539839206668</v>
+        <v>0.995534257804516</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1817</v>
@@ -2397,19 +2397,19 @@
         <v>1899544</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1889532</v>
+        <v>1887979</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1906093</v>
+        <v>1905791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9917737476396782</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9865464801983864</v>
+        <v>0.9857353849488795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9951930987528711</v>
+        <v>0.9950353867374025</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>2866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7559</v>
+        <v>8675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003479402750183421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001091609397540064</v>
+        <v>0.00108912494041194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009176822167721154</v>
+        <v>0.01053136542829618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2522,19 +2522,19 @@
         <v>9358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4614</v>
+        <v>4451</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17810</v>
+        <v>18036</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01213608351166881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00598366599157566</v>
+        <v>0.005772606395669812</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02309872262214989</v>
+        <v>0.02339165660459865</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -2543,19 +2543,19 @@
         <v>12224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6799</v>
+        <v>6286</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22673</v>
+        <v>20192</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007664713567402275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004263419349466957</v>
+        <v>0.003941608442993857</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0142169352511014</v>
+        <v>0.01266072566511331</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>820893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>816200</v>
+        <v>815084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>822860</v>
+        <v>822862</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9965205972498166</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9908231778322788</v>
+        <v>0.9894686345717044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.99890839060246</v>
+        <v>0.9989108750595881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>720</v>
@@ -2593,19 +2593,19 @@
         <v>761701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>753249</v>
+        <v>753023</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>766445</v>
+        <v>766608</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9878639164883312</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9769012773778499</v>
+        <v>0.9766083433954014</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9940163340084244</v>
+        <v>0.9942273936043302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1504</v>
@@ -2614,19 +2614,19 @@
         <v>1582594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1572145</v>
+        <v>1574626</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1588019</v>
+        <v>1588532</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9923352864325977</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9857830647488988</v>
+        <v>0.9873392743348871</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9957365806505332</v>
+        <v>0.9960583915570062</v>
       </c>
     </row>
     <row r="12">
@@ -2731,19 +2731,19 @@
         <v>4491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1118</v>
+        <v>1324</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11420</v>
+        <v>11065</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009171428283962391</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002282265436909293</v>
+        <v>0.00270303294520047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02331983391828911</v>
+        <v>0.02259587790265223</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -2752,19 +2752,19 @@
         <v>4491</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12115</v>
+        <v>10490</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00450745980551072</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001116893420716599</v>
+        <v>0.001101662454638331</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01215862238218011</v>
+        <v>0.01052802573393165</v>
       </c>
     </row>
     <row r="14">
@@ -2794,19 +2794,19 @@
         <v>485207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>478278</v>
+        <v>478633</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488580</v>
+        <v>488374</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9908285717160377</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9766801660817108</v>
+        <v>0.9774041220973477</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9977177345630908</v>
+        <v>0.9972969670547995</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>922</v>
@@ -2815,19 +2815,19 @@
         <v>991907</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>984283</v>
+        <v>985908</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>995285</v>
+        <v>995300</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9954925401944893</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9878413776178213</v>
+        <v>0.9894719742660685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9988831065792834</v>
+        <v>0.9988983375453617</v>
       </c>
     </row>
     <row r="15">
@@ -2919,19 +2919,19 @@
         <v>15249</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8482</v>
+        <v>8710</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25008</v>
+        <v>26035</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004528654035553886</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002519057779197682</v>
+        <v>0.002586803424212414</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007426713261449789</v>
+        <v>0.007731746313567769</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -2940,19 +2940,19 @@
         <v>34266</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23897</v>
+        <v>23966</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47575</v>
+        <v>48696</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009715912115670966</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006775755307635971</v>
+        <v>0.006795417500176507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0134896718811115</v>
+        <v>0.01380752767856422</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -2961,19 +2961,19 @@
         <v>49515</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36148</v>
+        <v>36679</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66625</v>
+        <v>65420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007182292585757236</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00524340177581255</v>
+        <v>0.005320358009600629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009664135530704521</v>
+        <v>0.009489321002667354</v>
       </c>
     </row>
     <row r="17">
@@ -2990,19 +2990,19 @@
         <v>3352033</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3342274</v>
+        <v>3341247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3358800</v>
+        <v>3358572</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9954713459644461</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9925732867385502</v>
+        <v>0.9922682536864322</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9974809422208023</v>
+        <v>0.9974131965757876</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3291</v>
@@ -3011,19 +3011,19 @@
         <v>3492526</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3479217</v>
+        <v>3478096</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3502895</v>
+        <v>3502826</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.990284087884329</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9865103281188885</v>
+        <v>0.9861924723214358</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.993224244692364</v>
+        <v>0.9932045824998235</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6482</v>
@@ -3032,19 +3032,19 @@
         <v>6844560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6827450</v>
+        <v>6828655</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6857927</v>
+        <v>6857396</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9928177074142428</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9903358644692956</v>
+        <v>0.9905106789973325</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9947565982241875</v>
+        <v>0.9946796419903994</v>
       </c>
     </row>
     <row r="18">
